--- a/public/static/file/importExcel/弱覆盖信息导入模板 (1).xlsx
+++ b/public/static/file/importExcel/弱覆盖信息导入模板 (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="弱覆盖统计" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
   <si>
     <t>城市</t>
   </si>
@@ -119,22 +119,134 @@
     <t>商业区</t>
   </si>
   <si>
-    <t>景区</t>
-  </si>
-  <si>
-    <t>党政军</t>
-  </si>
-  <si>
-    <t>住宅</t>
-  </si>
-  <si>
-    <t>医院</t>
-  </si>
-  <si>
-    <t>酒店</t>
-  </si>
-  <si>
-    <t>企事业单位</t>
+    <t>贵阳观山湖区金阳移动枢纽楼</t>
+    <rPh sb="0" eb="1">
+      <t>gui yang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan shan hu qu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jin yang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi dong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shu niu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传人员</t>
+    <rPh sb="0" eb="1">
+      <t>shang chuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员部门</t>
+    <rPh sb="0" eb="1">
+      <t>rebn yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu men</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓千</t>
+    <rPh sb="0" eb="1">
+      <t>deng qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合部</t>
+    <rPh sb="0" eb="1">
+      <t>zing he bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络类型</t>
+    <rPh sb="0" eb="1">
+      <t>wang luo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112114.12122</t>
+  </si>
+  <si>
+    <t>112114.12123</t>
+  </si>
+  <si>
+    <t>112114.12124</t>
+  </si>
+  <si>
+    <t>112114.12125</t>
+  </si>
+  <si>
+    <t>121212.12213</t>
+  </si>
+  <si>
+    <t>121212.12214</t>
+  </si>
+  <si>
+    <t>121212.12215</t>
+  </si>
+  <si>
+    <t>121212.12216</t>
+  </si>
+  <si>
+    <t>11212</t>
+  </si>
+  <si>
+    <t>11213</t>
+  </si>
+  <si>
+    <t>11214</t>
+  </si>
+  <si>
+    <t>11215</t>
+  </si>
+  <si>
+    <t>5G</t>
+  </si>
+  <si>
+    <t>2018-05-02</t>
+  </si>
+  <si>
+    <t>6G</t>
+  </si>
+  <si>
+    <t>2018-05-03</t>
+  </si>
+  <si>
+    <t>7G</t>
+  </si>
+  <si>
+    <t>2018-05-04</t>
+  </si>
+  <si>
+    <t>8G</t>
+  </si>
+  <si>
+    <t>2018-05-05</t>
   </si>
 </sst>
 </file>
@@ -198,11 +310,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -539,76 +663,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="173" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="29.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="29.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="3"/>
+    <col min="7" max="7" width="20.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="3"/>
+    <col min="11" max="11" width="14.1640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="3" customWidth="1"/>
+    <col min="13" max="14" width="10.83203125" style="3"/>
+    <col min="15" max="15" width="14.6640625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
@@ -621,8 +767,8 @@
       <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
+      <c r="H2" s="2">
+        <v>11211</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -631,35 +777,46 @@
         <v>-140</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="5">
+        <v>43352</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="T2" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
@@ -672,8 +829,8 @@
       <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
+      <c r="H3" s="2">
+        <v>11211</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -682,331 +839,270 @@
         <v>-140</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="5">
+        <v>43352</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="T3" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="H4" s="2">
+        <v>11211</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J4" s="2">
         <v>-140</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="2" t="s">
+      <c r="Q4" s="5">
+        <v>43352</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>28</v>
+      <c r="S4" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
+      </c>
+      <c r="H5" s="2">
+        <v>11211</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2">
         <v>-140</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="Q5" s="5">
+        <v>43352</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>28</v>
+      <c r="S5" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="H6" s="2">
+        <v>11211</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J6" s="2">
         <v>-140</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="2" t="s">
+      <c r="Q6" s="5">
+        <v>43352</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>28</v>
+      <c r="S6" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="H7" s="2">
+        <v>11211</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="J7" s="2">
         <v>-140</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="2" t="s">
+      <c r="Q7" s="5">
+        <v>43352</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="2">
-        <v>-140</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="2">
-        <v>-140</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>28</v>
+      <c r="S7" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
